--- a/summaries/trials/Dept of Health/lineages.xlsx
+++ b/summaries/trials/Dept of Health/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -75,6 +75,9 @@
   </si>
   <si>
     <t xml:space="preserve">B.1.1.10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102030297|VTM_or_Saline|20210209</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2102030358|VTM_or_Saline|20210209</t>
@@ -571,7 +574,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="16">
@@ -587,15 +590,15 @@
         <v>23</v>
       </c>
       <c r="B17" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" t="s">
         <v>25</v>
-      </c>
-      <c r="B18" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -619,15 +622,15 @@
         <v>28</v>
       </c>
       <c r="B21" t="s">
-        <v>29</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" t="s">
         <v>30</v>
-      </c>
-      <c r="B22" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -635,23 +638,23 @@
         <v>31</v>
       </c>
       <c r="B23" t="s">
-        <v>32</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" t="s">
         <v>33</v>
-      </c>
-      <c r="B24" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
+        <v>34</v>
+      </c>
+      <c r="B25" t="s">
         <v>35</v>
-      </c>
-      <c r="B25" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -659,7 +662,15 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>34</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/trials/Dept of Health/lineages.xlsx
+++ b/summaries/trials/Dept of Health/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -38,6 +38,9 @@
     <t xml:space="preserve">B.1.409</t>
   </si>
   <si>
+    <t xml:space="preserve">Dept_of_Health|AHS19005093|VTM|20210122</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|AHS19010094|VTM|20210122</t>
   </si>
   <si>
@@ -50,6 +53,12 @@
     <t xml:space="preserve">Dept_of_Health|AHS21000915|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">Dept_of_Health|AHS21001204|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.1.304</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
   </si>
   <si>
@@ -107,13 +116,61 @@
     <t xml:space="preserve">B.1.427</t>
   </si>
   <si>
+    <t xml:space="preserve">Dept_of_Health|H2102160885|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102160891|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170532|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">R.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170726|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170736|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170747|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102170795|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102200033|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102220686|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102230845|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102230852|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102230858|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">B.1.526</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102240764|VTM|20210301</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dept_of_Health|H2102250351|VTM|20210301</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001140|VTM|20210122</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001141|VTM|20210122</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B.1.1.304</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001143|VTM|20210122</t>
@@ -502,15 +559,15 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" t="s">
         <v>10</v>
-      </c>
-      <c r="B7" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="8">
@@ -526,15 +583,15 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B10" t="s">
         <v>14</v>
-      </c>
-      <c r="B10" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="11">
@@ -550,7 +607,7 @@
         <v>17</v>
       </c>
       <c r="B12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13">
@@ -558,15 +615,15 @@
         <v>18</v>
       </c>
       <c r="B13" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -574,7 +631,7 @@
         <v>21</v>
       </c>
       <c r="B15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="16">
@@ -582,23 +639,23 @@
         <v>22</v>
       </c>
       <c r="B16" t="s">
-        <v>3</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B17" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B18" t="s">
-        <v>25</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19">
@@ -614,12 +671,12 @@
         <v>27</v>
       </c>
       <c r="B20" t="s">
-        <v>3</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B21" t="s">
         <v>3</v>
@@ -627,10 +684,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23">
@@ -662,7 +719,7 @@
         <v>36</v>
       </c>
       <c r="B26" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27">
@@ -670,7 +727,135 @@
         <v>37</v>
       </c>
       <c r="B27" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s">
+        <v>39</v>
+      </c>
+      <c r="B28" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s">
+        <v>40</v>
+      </c>
+      <c r="B29" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s">
+        <v>41</v>
+      </c>
+      <c r="B30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B31" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s">
+        <v>43</v>
+      </c>
+      <c r="B32" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>44</v>
+      </c>
+      <c r="B33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>45</v>
+      </c>
+      <c r="B34" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s">
+        <v>46</v>
+      </c>
+      <c r="B35" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s">
+        <v>50</v>
+      </c>
+      <c r="B38" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s">
+        <v>51</v>
+      </c>
+      <c r="B39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>54</v>
       </c>
     </row>
   </sheetData>

--- a/summaries/trials/Dept of Health/lineages.xlsx
+++ b/summaries/trials/Dept of Health/lineages.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="86">
   <si>
     <t xml:space="preserve">sample</t>
   </si>
@@ -23,166 +23,253 @@
     <t xml:space="preserve">Dept_of_Health|ACUTE21000990|VTM|20210122</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.243</t>
+    <t xml:space="preserve">VSP0645</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|ACUTE21000991|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0643</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|ACUTE21000998|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0646</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|ACUTE21001041|VTM|20210122</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.409</t>
+    <t xml:space="preserve">VSP0644</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|AHS19005093|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0638</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|AHS19010094|VTM|20210122</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.2</t>
+    <t xml:space="preserve">VSP0640</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|AHS19029976|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0639</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|AHS21000915|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0642</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|AHS21001204|VTM|20210122</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.304</t>
+    <t xml:space="preserve">VSP0637</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|DOH1|VTM|20210106</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.7</t>
+    <t xml:space="preserve">VSP0563</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2101290600|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0662</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2101290654|VTM_or_Saline|20210209</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.433</t>
+    <t xml:space="preserve">VSP0661</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2101300048|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0660</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2101300054|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0659</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2101300063|VTM_or_Saline|20210209</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.1.10</t>
+    <t xml:space="preserve">VSP0658</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2102030297|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0671</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102030358|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0668</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102030405|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0670</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102030496|VTM_or_Saline|20210209</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.429</t>
+    <t xml:space="preserve">VSP0669</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2102040519|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0666</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102040684|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0665</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102040766|VTM_or_Saline|20210209</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0664</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102040793|VTM_or_Saline|20210209</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.427</t>
+    <t xml:space="preserve">VSP0663</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2102160885|VTM|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1</t>
+    <t xml:space="preserve">VSP0673</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2102160891|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0678</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102170532|VTM|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">R.1</t>
+    <t xml:space="preserve">VSP0676</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2102170726|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0672</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102170736|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0677</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102170747|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0675</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102170795|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0674</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102200033|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0679</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102220686|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0680</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102230845|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0682</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102230852|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0683</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102230858|VTM|20210301</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.526</t>
+    <t xml:space="preserve">VSP0681</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|H2102240764|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0684</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|H2102250351|VTM|20210301</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0685</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001140|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0648</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001141|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0649</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001143|VTM|20210122</t>
   </si>
   <si>
-    <t xml:space="preserve">B.1.404</t>
+    <t xml:space="preserve">VSP0651</t>
   </si>
   <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001144|VTM|20210122</t>
   </si>
   <si>
+    <t xml:space="preserve">VSP0650</t>
+  </si>
+  <si>
     <t xml:space="preserve">Dept_of_Health|RISONS21001145|VTM|20210122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VSP0647</t>
   </si>
 </sst>
 </file>
@@ -535,327 +622,327 @@
         <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B11" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="B14" t="s">
-        <v>10</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>10</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>30</v>
       </c>
       <c r="B16" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>10</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>34</v>
       </c>
       <c r="B18" t="s">
-        <v>3</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="B20" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="B21" t="s">
-        <v>3</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
-        <v>3</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>3</v>
+        <v>45</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B24" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>10</v>
+        <v>51</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="B27" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="B28" t="s">
-        <v>3</v>
+        <v>55</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="B29" t="s">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="B30" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="B31" t="s">
-        <v>16</v>
+        <v>61</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>10</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>44</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>45</v>
+        <v>66</v>
       </c>
       <c r="B34" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>46</v>
+        <v>68</v>
       </c>
       <c r="B35" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="B36" t="s">
-        <v>48</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>49</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>3</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>50</v>
+        <v>74</v>
       </c>
       <c r="B38" t="s">
-        <v>35</v>
+        <v>75</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="B39" t="s">
-        <v>3</v>
+        <v>77</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B40" t="s">
-        <v>14</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>53</v>
+        <v>80</v>
       </c>
       <c r="B41" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
-        <v>3</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>54</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
